--- a/tut06/output/2001CB05.xlsx
+++ b/tut06/output/2001CB05.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -559,7 +559,9 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -580,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +603,9 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -644,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +669,9 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -708,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +735,9 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -750,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -771,7 +779,9 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
